--- a/biology/Botanique/Setaria_parviflora/Setaria_parviflora.xlsx
+++ b/biology/Botanique/Setaria_parviflora/Setaria_parviflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Setaria parviflora, la sétaire gracile ou sétaire à petites fleurs, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Amérique.
 Ce sont des plantes herbacées vivaces, aux tiges dressées pouvant atteindre 110 cm de haut, aux inflorescences en panicules spiciformes.
-C'est une espèce pantropicale très polymorphique, qui a été décrite sous de multiples noms dans les différentes parties du monde[2].
+C'est une espèce pantropicale très polymorphique, qui a été décrite sous de multiples noms dans les différentes parties du monde.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Setaria parviflora s'étend selon la plupart des auteurs dans les régions tropicales et subtropicales des Amériques.
-Cependant l'espèce a été assez largement introduite dans les autres continents : Sud-Ouest de l'Europe, Asie de l'Est et du Sud, Australie, Nouvelle-Zélande et îles du Pacifique, sauf en Afrique, à l'exception de l'Afrique du Sud[2].
-La plante se rencontre dans les habitats ouverts et sur les pentes des montagnes, dans les prairies, champs cultivés, marais salants et zones humides le long des côtes, ainsi que dans les pelouses, bords de route et lisières des bois[2].
+Cependant l'espèce a été assez largement introduite dans les autres continents : Sud-Ouest de l'Europe, Asie de l'Est et du Sud, Australie, Nouvelle-Zélande et îles du Pacifique, sauf en Afrique, à l'exception de l'Afrique du Sud.
+La plante se rencontre dans les habitats ouverts et sur les pentes des montagnes, dans les prairies, champs cultivés, marais salants et zones humides le long des côtes, ainsi que dans les pelouses, bords de route et lisières des bois.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (9 janvier 2018)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 janvier 2018) :
 Alopecurus rubicundus Buch.-Ham. ex Wall., nom. nud.
 Cenchrus parviflorus Poir.
 Chaetochloa corrugata var. parviflora (Poir.) Scribn. &amp; Merr.
@@ -685,8 +704,43 @@
 Setaria tenella Desv.
 Setaria ventenatii Kunth, nom. superfl.
 Setaria vulpina (Willd.) P.Beauv.
-Liste des variétés
-Selon Tropicos                                           (9 janvier 2018)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Setaria_parviflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Setaria_parviflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Setaria parviflora var. brachytricha Pensiero
 Setaria parviflora var. parviflora
 Setaria parviflora var. pilosissima (Hack.) Pensiero</t>
